--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1416076.514087902</v>
+        <v>-1418937.327880194</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>244.8448976285501</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>32.55518202532718</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>146.8441964344762</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>126.8838859631191</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>81.23711280725244</v>
+        <v>254.9054793730298</v>
       </c>
       <c r="V4" t="n">
-        <v>174.1382159147928</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>213.0772331299922</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>97.26234557100796</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>59.8012719186828</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>46.6082613068418</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>127.1048571017388</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.91114126833898</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>109.1526686504788</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>15.85533654003859</v>
+        <v>204.4133453731789</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177535</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>135.4381829241309</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696367</v>
+        <v>26.19606808885461</v>
       </c>
       <c r="I9" t="n">
-        <v>23.7963092690661</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858445</v>
+        <v>136.2924232858444</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346715</v>
+        <v>192.4848946346714</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
-        <v>141.3664192522421</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169636</v>
+        <v>105.4699075169635</v>
       </c>
       <c r="S10" t="n">
         <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>221.1204706627544</v>
       </c>
       <c r="U10" t="n">
         <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>64.26203976171928</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5780840140139</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417093</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T11" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.16423677622928</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631855993</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.87604574171</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560535</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>118.824151461346</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881272</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.03063761899501</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.87604574171</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.49605685438627</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>160.3783204776929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>136.7593194687121</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>143.1086912616885</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799753</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="D2" t="n">
-        <v>534.7928453799753</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="E2" t="n">
-        <v>534.7928453799753</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="F2" t="n">
-        <v>534.7928453799753</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>53.98113264792573</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>586.7364457822819</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799753</v>
+        <v>586.7364457822819</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799753</v>
+        <v>586.7364457822819</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151038</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.4282065123045</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="C3" t="n">
-        <v>307.4282065123045</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D3" t="n">
         <v>158.4937968510533</v>
@@ -4398,34 +4398,34 @@
         <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699348</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302314</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="U3" t="n">
-        <v>729.8809002605742</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="V3" t="n">
-        <v>729.8809002605742</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="W3" t="n">
-        <v>475.6435435323726</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="X3" t="n">
-        <v>475.6435435323726</v>
+        <v>481.2742972781158</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.6435435323726</v>
+        <v>481.2742972781158</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>615.2521776787694</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>446.3159947508624</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>446.3159947508624</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.413376528795</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551012</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092336</v>
       </c>
       <c r="U4" t="n">
-        <v>972.7978303017292</v>
+        <v>236.326638814254</v>
       </c>
       <c r="V4" t="n">
-        <v>796.9006425090091</v>
+        <v>236.326638814254</v>
       </c>
       <c r="W4" t="n">
-        <v>796.9006425090091</v>
+        <v>236.326638814254</v>
       </c>
       <c r="X4" t="n">
-        <v>796.9006425090091</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>796.9006425090091</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>367.789405660333</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>367.789405660333</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>94.46624834395162</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818428</v>
+        <v>81.50243557050716</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>81.50243557050716</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592.7666630722902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>418.3136337911632</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>371.2345819660704</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,16 +4647,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278862</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>483.1859673338549</v>
       </c>
       <c r="W6" t="n">
-        <v>800.618163277823</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>592.7666630722902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>592.7666630722902</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.2217926073722</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>187.2856096794653</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>37.16897026712957</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>37.16897026712957</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>37.16897026712957</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>37.16897026712957</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>944.6002991469551</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>944.6002991469551</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745502</v>
+        <v>944.6002991469551</v>
       </c>
       <c r="U7" t="n">
-        <v>356.2217926073722</v>
+        <v>678.2226425797771</v>
       </c>
       <c r="V7" t="n">
-        <v>356.2217926073722</v>
+        <v>423.5381543738903</v>
       </c>
       <c r="W7" t="n">
-        <v>356.2217926073722</v>
+        <v>423.5381543738903</v>
       </c>
       <c r="X7" t="n">
-        <v>356.2217926073722</v>
+        <v>423.5381543738903</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.2217926073722</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1247.684183178702</v>
+        <v>1367.694738397562</v>
       </c>
       <c r="C8" t="n">
-        <v>1231.668691724118</v>
+        <v>1161.216611757987</v>
       </c>
       <c r="D8" t="n">
-        <v>873.4029931173675</v>
+        <v>1161.216611757987</v>
       </c>
       <c r="E8" t="n">
-        <v>873.4029931173675</v>
+        <v>775.4283591597432</v>
       </c>
       <c r="F8" t="n">
-        <v>462.4170883277599</v>
+        <v>364.4424543701356</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181687</v>
+        <v>352.5821724745966</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="J8" t="n">
-        <v>166.498936722916</v>
+        <v>166.4989367229168</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677489</v>
+        <v>397.0601716677506</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937565</v>
+        <v>719.9935330937594</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721575</v>
+        <v>1110.98855772158</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999419</v>
+        <v>1512.924098999424</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830555</v>
+        <v>1879.125171830561</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271722</v>
+        <v>2157.168314271729</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257581</v>
+        <v>2317.794388257589</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590843</v>
+        <v>2325.820119590851</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259779</v>
+        <v>2325.820119590851</v>
       </c>
       <c r="T8" t="n">
-        <v>1987.052678512938</v>
+        <v>2325.820119590851</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.052678512938</v>
+        <v>2072.223384002213</v>
       </c>
       <c r="V8" t="n">
-        <v>1987.052678512938</v>
+        <v>1741.160496658642</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.284023242824</v>
+        <v>1741.160496658642</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.284023242824</v>
+        <v>1367.694738397562</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.284023242824</v>
+        <v>1367.694738397562</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.7659619054696</v>
+        <v>692.4082165547877</v>
       </c>
       <c r="C9" t="n">
-        <v>610.3129326243426</v>
+        <v>517.9551872736607</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3785229630913</v>
+        <v>369.0207776124095</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1410679576358</v>
+        <v>209.783322606954</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576358</v>
+        <v>209.783322606954</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797257</v>
+        <v>72.97707722904391</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117656</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977931</v>
+        <v>99.15933091977985</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412822</v>
+        <v>267.2893053412834</v>
       </c>
       <c r="L9" t="n">
-        <v>539.6833456336965</v>
+        <v>842.9297849400191</v>
       </c>
       <c r="M9" t="n">
-        <v>1115.32382523243</v>
+        <v>1180.157650136684</v>
       </c>
       <c r="N9" t="n">
-        <v>1480.457275277539</v>
+        <v>1540.719578388021</v>
       </c>
       <c r="O9" t="n">
-        <v>1788.081202938426</v>
+        <v>1848.34350604891</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.643459247542</v>
+        <v>2223.61997410604</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590843</v>
+        <v>2325.820119590851</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590843</v>
+        <v>2325.820119590851</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160697</v>
+        <v>2188.151005160706</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661029</v>
+        <v>1993.721818661038</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505279</v>
+        <v>1765.624817505287</v>
       </c>
       <c r="V9" t="n">
-        <v>1622.830454624226</v>
+        <v>1530.472709273544</v>
       </c>
       <c r="W9" t="n">
-        <v>1368.593097896024</v>
+        <v>1276.235352545342</v>
       </c>
       <c r="X9" t="n">
-        <v>1160.741597690492</v>
+        <v>1068.38385233981</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.9812989255377</v>
+        <v>860.6235535748558</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.5269400032992</v>
+        <v>215.4525853197239</v>
       </c>
       <c r="C10" t="n">
-        <v>214.5907570753923</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="D10" t="n">
-        <v>214.5907570753923</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="E10" t="n">
-        <v>214.5907570753923</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="F10" t="n">
-        <v>214.5907570753923</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181687</v>
+        <v>46.51640239181703</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909547</v>
+        <v>65.89540801909584</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736018</v>
+        <v>227.5779039736025</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632616</v>
+        <v>490.0022680632628</v>
       </c>
       <c r="M10" t="n">
-        <v>777.081088479405</v>
+        <v>777.0810884794066</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620619</v>
+        <v>1062.768432620621</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257115</v>
+        <v>1310.630639257118</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325117</v>
+        <v>1499.19889432512</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718231</v>
+        <v>1546.318699718234</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600086</v>
+        <v>1439.783439600089</v>
       </c>
       <c r="S10" t="n">
-        <v>1241.623008901909</v>
+        <v>1241.623008901912</v>
       </c>
       <c r="T10" t="n">
-        <v>1018.26899813145</v>
+        <v>1018.268998131453</v>
       </c>
       <c r="U10" t="n">
-        <v>729.1458666357322</v>
+        <v>729.1458666357353</v>
       </c>
       <c r="V10" t="n">
-        <v>729.1458666357322</v>
+        <v>664.2347153612714</v>
       </c>
       <c r="W10" t="n">
-        <v>604.3195191468293</v>
+        <v>664.2347153612714</v>
       </c>
       <c r="X10" t="n">
-        <v>604.3195191468293</v>
+        <v>436.245164463254</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5269400032992</v>
+        <v>215.4525853197239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732377</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>335.9629114732377</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578546</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000526</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362685</v>
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615996</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
         <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038403</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797804</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910815</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570823</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853367</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832669</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.294644713847</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,16 +5540,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>211.4566897748909</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>800.5007694647277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>650.3841300523919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,7 +6023,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.363146234998</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2015.761681257939</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1726.686454602137</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.686454602137</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1437.269284565176</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.279733667159</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>417.9651836029414</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,13 +7023,13 @@
         <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.154262550759</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,7 +7108,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,7 +7345,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7360,13 +7360,13 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.3728896106911</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446529</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8295,7 +8295,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544048</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.78351343583188</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>306.3095346528492</v>
       </c>
       <c r="M9" t="n">
-        <v>240.8208226283534</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.61769878158816</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>149.2062744929438</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864773</v>
+        <v>27.3816465586475</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>167.9892770171598</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>281.6384506039408</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>98.97060154043554</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,19 +22756,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>77.99942740903521</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>12.63242225904499</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.279983466423198e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3599015160396</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>99.76050189074883</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.8013425629423</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23.83108638657406</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.9379057921829</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>58.20633287440185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>80.64613085857621</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>37.91759473995606</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1065467.867139634</v>
+        <v>1065467.867139633</v>
       </c>
     </row>
     <row r="3">
@@ -26323,7 +26323,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380012</v>
@@ -26335,22 +26335,22 @@
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728567</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512986</v>
+        <v>331437.5228513007</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.784342411</v>
+        <v>563905.7843424088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201205</v>
+        <v>99845.14336201265</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569557</v>
+        <v>147342.6769569551</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.864620583750115e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169912.6533260399</v>
+        <v>169912.6533260398</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>158321.5536878357</v>
+        <v>158321.5536878351</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680592</v>
+        <v>11776.97621680598</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.9762168059</v>
+        <v>11776.97621680598</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680594</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680594</v>
+      </c>
+      <c r="I4" t="n">
         <v>11776.97621680584</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680583</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26445,13 +26445,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989927</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="O4" t="n">
         <v>19767.83547989931</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543585</v>
+        <v>88290.79546543601</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-777646.7244060419</v>
+        <v>-778006.8074217592</v>
       </c>
       <c r="C6" t="n">
         <v>-150961.514494587</v>
       </c>
       <c r="D6" t="n">
-        <v>-413841.5180317133</v>
+        <v>-413841.5180317151</v>
       </c>
       <c r="E6" t="n">
-        <v>-515375.9704451228</v>
+        <v>-515410.7083705563</v>
       </c>
       <c r="F6" t="n">
-        <v>48529.81389728817</v>
+        <v>48495.07597185236</v>
       </c>
       <c r="G6" t="n">
-        <v>48529.81389728836</v>
+        <v>48495.07597185242</v>
       </c>
       <c r="H6" t="n">
-        <v>48529.81389728827</v>
+        <v>48495.07597185248</v>
       </c>
       <c r="I6" t="n">
-        <v>48529.81389728824</v>
+        <v>48495.07597185257</v>
       </c>
       <c r="J6" t="n">
-        <v>-20469.34052182593</v>
+        <v>-20504.07844726148</v>
       </c>
       <c r="K6" t="n">
-        <v>48529.8138972883</v>
+        <v>48495.07597185261</v>
       </c>
       <c r="L6" t="n">
-        <v>-58568.74072297001</v>
+        <v>-58568.74072297056</v>
       </c>
       <c r="M6" t="n">
-        <v>-106066.2743179137</v>
+        <v>-106066.274317913</v>
       </c>
       <c r="N6" t="n">
-        <v>41276.40263904212</v>
+        <v>41276.40263904209</v>
       </c>
       <c r="O6" t="n">
-        <v>41276.40263904192</v>
+        <v>41276.40263904209</v>
       </c>
       <c r="P6" t="n">
-        <v>41276.40263904195</v>
+        <v>41276.402639042</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896803</v>
+        <v>885.813286589682</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977108</v>
+        <v>581.4550298977128</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.080775729687643e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.758272820202</v>
+        <v>271.7582728202037</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519935</v>
+        <v>482.1622137519915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962047</v>
+        <v>317.7411498962067</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019376</v>
+        <v>591.2532582019353</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962047</v>
+        <v>317.7411498962067</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019376</v>
+        <v>591.2532582019353</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962047</v>
+        <v>317.7411498962067</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019376</v>
+        <v>591.2532582019353</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>19.68898721539117</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27506,7 +27506,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>205.021517695425</v>
+        <v>31.35315112964767</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>216.93128705826</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>55.50534762821431</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>100.836804257797</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>105.6957300476865</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>136.4710180675178</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>18.35193423318516</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>349.417555230969</v>
+        <v>160.8595463978287</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815002</v>
+        <v>73.18818411814974</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177534</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493722</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>67.63785862810902</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906597</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>91.43416789718319</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>148.0251168634279</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>107.4132560413785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>187.8756035621087</v>
       </c>
       <c r="W10" t="n">
-        <v>162.9449143225771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>2.144756096860312e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.607064728227951e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.414636683656336e-12</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6.170787691811635e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.446170080239896e-12</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.446170080239896e-12</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551476</v>
+        <v>3.561058438551483</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381531</v>
+        <v>36.46968973381538</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522559</v>
+        <v>137.2877054522562</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490086</v>
+        <v>302.2403836490092</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528926</v>
+        <v>452.9799873528935</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417125</v>
+        <v>561.9617295417136</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483023</v>
+        <v>625.2907025483034</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368367</v>
+        <v>635.408559836838</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884905</v>
+        <v>599.9982849884916</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867508</v>
+        <v>512.0846547867518</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561259</v>
+        <v>384.5542494561267</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406593</v>
+        <v>223.6923371406598</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849183</v>
+        <v>81.14761916849199</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475909</v>
+        <v>15.58853331475912</v>
       </c>
       <c r="U8" t="n">
-        <v>0.284884675084118</v>
+        <v>0.2848846750841186</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.90533423907969</v>
+        <v>1.905334239079693</v>
       </c>
       <c r="H9" t="n">
-        <v>18.4015175195328</v>
+        <v>18.40151751953283</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234898</v>
+        <v>65.60032358234911</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474368</v>
+        <v>180.0123019474372</v>
       </c>
       <c r="K9" t="n">
-        <v>307.669695965776</v>
+        <v>307.6696959657767</v>
       </c>
       <c r="L9" t="n">
-        <v>413.699875024737</v>
+        <v>413.6998750247378</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913757</v>
+        <v>482.7682411913766</v>
       </c>
       <c r="N9" t="n">
-        <v>495.545680013976</v>
+        <v>495.5456800139769</v>
       </c>
       <c r="O9" t="n">
-        <v>453.327484505947</v>
+        <v>453.3274845059479</v>
       </c>
       <c r="P9" t="n">
-        <v>363.835272373033</v>
+        <v>363.8352723730338</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726987</v>
+        <v>243.2142442726991</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053162</v>
+        <v>118.2978574053164</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799334</v>
+        <v>35.3907478179934</v>
       </c>
       <c r="T9" t="n">
-        <v>7.67983406015015</v>
+        <v>7.679834060150164</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815586</v>
+        <v>0.1253509367815588</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719095</v>
+        <v>1.597368221719099</v>
       </c>
       <c r="H10" t="n">
-        <v>14.2020556440116</v>
+        <v>14.20205564401163</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587972</v>
+        <v>48.03721888587981</v>
       </c>
       <c r="J10" t="n">
-        <v>112.93393327554</v>
+        <v>112.9339332755403</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051821</v>
+        <v>185.5851443051825</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817645</v>
+        <v>237.4850899817649</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191124</v>
+        <v>250.3947295191128</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108868</v>
+        <v>244.4409025108873</v>
       </c>
       <c r="O10" t="n">
-        <v>225.78073737535</v>
+        <v>225.7807373753505</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522803</v>
+        <v>193.1944256522807</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750417</v>
+        <v>133.757806275042</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020585</v>
+        <v>71.823483860206</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577732</v>
+        <v>27.83777164577737</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527042</v>
+        <v>6.825118765527056</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013258</v>
+        <v>0.08712917573013275</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488891</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32081,31 +32081,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908111</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>454.5606621218849</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>638.9422653403562</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,25 +32549,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>216.0947523943934</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>640.2652944187043</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>206.1632388819608</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>463.4789474089069</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>638.9422653403558</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>531.2627466777524</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>578.1083652167725</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,19 +34451,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>404.0195168876591</v>
+        <v>608.2694430035901</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966409</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34866,7 +34866,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35024,10 +35024,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>217.43861174566</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223223</v>
+        <v>121.1944791223229</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079121</v>
+        <v>232.890136307913</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717253</v>
+        <v>326.1953145717263</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210296</v>
+        <v>394.9444693210307</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402458</v>
+        <v>405.9954962402471</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668037</v>
+        <v>369.9000735668048</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314812</v>
+        <v>280.8516590314823</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816765</v>
+        <v>162.2485595816772</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527209</v>
+        <v>8.106799326527636</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077015</v>
+        <v>53.17467528077051</v>
       </c>
       <c r="K9" t="n">
-        <v>169.828256991417</v>
+        <v>169.8282569914177</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448628</v>
+        <v>581.4550298977128</v>
       </c>
       <c r="M9" t="n">
-        <v>581.4550298977108</v>
+        <v>340.6342072693583</v>
       </c>
       <c r="N9" t="n">
-        <v>368.8216667122308</v>
+        <v>364.2039679306437</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615026</v>
+        <v>310.7312400615035</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587028</v>
+        <v>379.0671394516473</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225263</v>
+        <v>103.2324701866776</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886727</v>
+        <v>19.57475315886748</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792993</v>
+        <v>163.3156524792996</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420806</v>
+        <v>265.0751152420811</v>
       </c>
       <c r="M10" t="n">
-        <v>289.978606480953</v>
+        <v>289.9786064809534</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901154</v>
+        <v>288.5730748901159</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893897</v>
+        <v>250.3658652893901</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171738</v>
+        <v>190.4729849171742</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334735</v>
+        <v>47.5957630233476</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>134.6960534463666</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096411</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>316.7192231475259</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>496.3460208959119</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>77.54037261451923</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>498.1312604966861</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>325.6375084345479</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>496.3460208959114</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7666531334392</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>265.4651371077849</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
